--- a/10.xlsx
+++ b/10.xlsx
@@ -60,7 +60,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2007-Q2</t>
+    <t>2006-Q3</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -96,7 +96,7 @@
     <t>Downloaded at</t>
   </si>
   <si>
-    <t>2025-04-29 13:48 CEST</t>
+    <t>2025-04-29 13:49 CEST</t>
   </si>
   <si>
     <t>Source</t>
@@ -173,430 +173,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2007-Q2</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2006-Q3</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +605,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2007-Q2</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2006-Q3</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2007-Q2</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2006-Q3</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2007-Q2</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2006-Q3</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,43 +725,43 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2007-Q2</t>
+    <t>Q.USD.US.P.A.A.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2006-Q3</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2007-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2006-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2007-Q1</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2007-Q2</t>
+    <t>Q.USD.US.G.A.A.B.USD.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2006-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2006-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2006-Q2</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2006-Q3</t>
   </si>
 </sst>
 </file>
@@ -1418,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>4603.465933</v>
+        <v>4027.094491</v>
       </c>
       <c r="C3">
-        <v>4866.621635</v>
+        <v>4186.225836</v>
       </c>
       <c r="D3">
-        <v>5211.837337</v>
+        <v>4292.540777</v>
       </c>
       <c r="E3">
-        <v>19.3</v>
+        <v>13.7</v>
       </c>
       <c r="F3">
-        <v>19.2</v>
+        <v>15.1</v>
       </c>
       <c r="G3">
-        <v>24.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1441,22 +1441,22 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1447.402483</v>
+        <v>1345.851577</v>
       </c>
       <c r="C4">
-        <v>1481.575351</v>
+        <v>1366.839097</v>
       </c>
       <c r="D4">
-        <v>1592.973411</v>
+        <v>1397.657742</v>
       </c>
       <c r="E4">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="F4">
-        <v>10.9</v>
+        <v>14.7</v>
       </c>
       <c r="G4">
-        <v>16.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>254.686245</v>
+        <v>215.476258</v>
       </c>
       <c r="C5">
-        <v>264.932811</v>
+        <v>224.501592</v>
       </c>
       <c r="D5">
-        <v>291.532455</v>
+        <v>233.807405</v>
       </c>
       <c r="E5">
-        <v>26.8</v>
+        <v>29.4</v>
       </c>
       <c r="F5">
-        <v>23</v>
+        <v>33.9</v>
       </c>
       <c r="G5">
-        <v>29.9</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>14.086</v>
+        <v>11.484</v>
       </c>
       <c r="C6">
-        <v>16.582</v>
+        <v>13.24</v>
       </c>
       <c r="D6">
-        <v>18.414</v>
+        <v>13.265</v>
       </c>
       <c r="E6">
-        <v>25.4</v>
+        <v>19.3</v>
       </c>
       <c r="F6">
-        <v>44.4</v>
+        <v>40.5</v>
       </c>
       <c r="G6">
-        <v>39.1</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>8.67</v>
+        <v>6.989</v>
       </c>
       <c r="C7">
-        <v>7.528</v>
+        <v>7.284</v>
       </c>
       <c r="D7">
-        <v>8.538180000000001</v>
+        <v>8.802</v>
       </c>
       <c r="E7">
-        <v>20.7</v>
+        <v>-0.1</v>
       </c>
       <c r="F7">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="G7">
-        <v>17.2</v>
+        <v>24.9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>528.749142</v>
+        <v>474.533489</v>
       </c>
       <c r="C8">
-        <v>525.732006</v>
+        <v>501.330588</v>
       </c>
       <c r="D8">
-        <v>564.417408</v>
+        <v>518.179973</v>
       </c>
       <c r="E8">
-        <v>14.7</v>
+        <v>13.9</v>
       </c>
       <c r="F8">
-        <v>10.6</v>
+        <v>15.3</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>16.0768</v>
+        <v>15.4768</v>
       </c>
       <c r="C9">
-        <v>17.7268</v>
+        <v>17.0518</v>
       </c>
       <c r="D9">
-        <v>21.8448</v>
+        <v>16.9958</v>
       </c>
       <c r="E9">
-        <v>-6.8</v>
+        <v>11.1</v>
       </c>
       <c r="F9">
-        <v>14.9</v>
+        <v>14.1</v>
       </c>
       <c r="G9">
-        <v>28.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>40.56256</v>
+        <v>38.78556</v>
       </c>
       <c r="C10">
-        <v>39.93869</v>
+        <v>38.05456</v>
       </c>
       <c r="D10">
-        <v>41.60678</v>
+        <v>40.90556</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>-15.2</v>
       </c>
       <c r="G10">
-        <v>9.300000000000001</v>
+        <v>-5.9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>25.3062</v>
+        <v>19.5587</v>
       </c>
       <c r="C11">
-        <v>28.6962</v>
+        <v>22.9532</v>
       </c>
       <c r="D11">
-        <v>33.0417</v>
+        <v>23.5012</v>
       </c>
       <c r="E11">
-        <v>56.6</v>
+        <v>43.9</v>
       </c>
       <c r="F11">
-        <v>46.7</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>44</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>14.23</v>
+        <v>14.745</v>
       </c>
       <c r="C12">
-        <v>16.256</v>
+        <v>14.812</v>
       </c>
       <c r="D12">
-        <v>15.639</v>
+        <v>14.327</v>
       </c>
       <c r="E12">
-        <v>12.7</v>
+        <v>58.5</v>
       </c>
       <c r="F12">
-        <v>10.2</v>
+        <v>43.8</v>
       </c>
       <c r="G12">
-        <v>5.6</v>
+        <v>38.6</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>74.863437</v>
+        <v>60.891192</v>
       </c>
       <c r="C13">
-        <v>74.31858</v>
+        <v>65.59132200000001</v>
       </c>
       <c r="D13">
-        <v>81.56393</v>
+        <v>71.50873300000001</v>
       </c>
       <c r="E13">
-        <v>26.3</v>
+        <v>13.5</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>16.1</v>
       </c>
       <c r="G13">
-        <v>24.4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>25.21975</v>
+        <v>24.871584</v>
       </c>
       <c r="C14">
-        <v>24.884925</v>
+        <v>24.842806</v>
       </c>
       <c r="D14">
-        <v>23.95304</v>
+        <v>25.12134</v>
       </c>
       <c r="E14">
-        <v>6.9</v>
+        <v>11.4</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>7.6</v>
       </c>
       <c r="G14">
-        <v>-3.6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1694,22 +1694,22 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>211.231847</v>
+        <v>204.401403</v>
       </c>
       <c r="C15">
-        <v>226.098798</v>
+        <v>205.49749</v>
       </c>
       <c r="D15">
-        <v>252.781287</v>
+        <v>203.21027</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>24.7</v>
       </c>
       <c r="F15">
-        <v>13</v>
+        <v>25.8</v>
       </c>
       <c r="G15">
-        <v>23</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1717,22 +1717,22 @@
         <v>130</v>
       </c>
       <c r="B16">
-        <v>70.438108</v>
+        <v>72.97073899999999</v>
       </c>
       <c r="C16">
-        <v>75.477557</v>
+        <v>73.57706899999999</v>
       </c>
       <c r="D16">
-        <v>89.13985700000001</v>
+        <v>67.05551800000001</v>
       </c>
       <c r="E16">
-        <v>-5.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F16">
-        <v>3.4</v>
+        <v>11.1</v>
       </c>
       <c r="G16">
-        <v>21.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1740,22 +1740,22 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>72.812404</v>
+        <v>63.805426</v>
       </c>
       <c r="C17">
-        <v>77.583387</v>
+        <v>64.916892</v>
       </c>
       <c r="D17">
-        <v>81.476572</v>
+        <v>68.20336</v>
       </c>
       <c r="E17">
-        <v>29.1</v>
+        <v>27.9</v>
       </c>
       <c r="F17">
-        <v>23.3</v>
+        <v>29.4</v>
       </c>
       <c r="G17">
-        <v>26.5</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1763,22 +1763,22 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>452.735249</v>
+        <v>451.440427</v>
       </c>
       <c r="C18">
-        <v>464.811735</v>
+        <v>435.509428</v>
       </c>
       <c r="D18">
-        <v>484.242261</v>
+        <v>442.460094</v>
       </c>
       <c r="E18">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="G18">
-        <v>11.1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1786,22 +1786,22 @@
         <v>151</v>
       </c>
       <c r="B19">
-        <v>45.517867</v>
+        <v>43.361018</v>
       </c>
       <c r="C19">
-        <v>45.549576</v>
+        <v>43.652501</v>
       </c>
       <c r="D19">
-        <v>47.765653</v>
+        <v>44.117692</v>
       </c>
       <c r="E19">
-        <v>5.2</v>
+        <v>-30.2</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="G19">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1809,22 +1809,22 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>103.124323</v>
+        <v>100.213458</v>
       </c>
       <c r="C20">
-        <v>106.095183</v>
+        <v>90.270022</v>
       </c>
       <c r="D20">
-        <v>108.095023</v>
+        <v>93.213032</v>
       </c>
       <c r="E20">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>5.9</v>
+        <v>-6.4</v>
       </c>
       <c r="G20">
-        <v>19.7</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1832,22 +1832,22 @@
         <v>165</v>
       </c>
       <c r="B21">
-        <v>37.02118</v>
+        <v>32.94518</v>
       </c>
       <c r="C21">
-        <v>37.23969</v>
+        <v>34.69518</v>
       </c>
       <c r="D21">
-        <v>37.44169</v>
+        <v>35.27418</v>
       </c>
       <c r="E21">
-        <v>11.2</v>
+        <v>1.2</v>
       </c>
       <c r="F21">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="G21">
-        <v>7.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1855,22 +1855,22 @@
         <v>172</v>
       </c>
       <c r="B22">
-        <v>105.119596</v>
+        <v>104.383878</v>
       </c>
       <c r="C22">
-        <v>105.473325</v>
+        <v>110.4719</v>
       </c>
       <c r="D22">
-        <v>107.307238</v>
+        <v>110.218817</v>
       </c>
       <c r="E22">
-        <v>-3.3</v>
+        <v>-5.9</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G22">
-        <v>-3.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1883,22 +1883,22 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>4603.465933</v>
+        <v>4027.094491</v>
       </c>
       <c r="C24">
-        <v>4866.621635</v>
+        <v>4186.225836</v>
       </c>
       <c r="D24">
-        <v>5211.837337</v>
+        <v>4292.540777</v>
       </c>
       <c r="E24">
-        <v>19.3</v>
+        <v>13.7</v>
       </c>
       <c r="F24">
-        <v>19.2</v>
+        <v>15.1</v>
       </c>
       <c r="G24">
-        <v>24.4</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1906,22 +1906,22 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>2531.545581</v>
+        <v>2194.204763</v>
       </c>
       <c r="C25">
-        <v>2692.857255</v>
+        <v>2311.793003</v>
       </c>
       <c r="D25">
-        <v>2920.479513</v>
+        <v>2332.885383</v>
       </c>
       <c r="E25">
-        <v>21</v>
+        <v>17.2</v>
       </c>
       <c r="F25">
-        <v>19.6</v>
+        <v>18.4</v>
       </c>
       <c r="G25">
-        <v>26.1</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1929,22 +1929,22 @@
         <v>187</v>
       </c>
       <c r="B26">
-        <v>2071.920352</v>
+        <v>1832.889728</v>
       </c>
       <c r="C26">
-        <v>2173.76438</v>
+        <v>1874.432833</v>
       </c>
       <c r="D26">
-        <v>2291.357825</v>
+        <v>1959.655394</v>
       </c>
       <c r="E26">
-        <v>17.4</v>
+        <v>9.9</v>
       </c>
       <c r="F26">
-        <v>18.6</v>
+        <v>11.3</v>
       </c>
       <c r="G26">
-        <v>22.2</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1952,22 +1952,22 @@
         <v>194</v>
       </c>
       <c r="B27">
-        <v>1045.017476</v>
+        <v>1032.570226</v>
       </c>
       <c r="C27">
-        <v>1069.89124</v>
+        <v>1025.947498</v>
       </c>
       <c r="D27">
-        <v>1092.875201</v>
+        <v>1039.895201</v>
       </c>
       <c r="E27">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="F27">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="G27">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1975,22 +1975,22 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>1447.402483</v>
+        <v>1345.851577</v>
       </c>
       <c r="C28">
-        <v>1481.575351</v>
+        <v>1366.839097</v>
       </c>
       <c r="D28">
-        <v>1592.973411</v>
+        <v>1397.657742</v>
       </c>
       <c r="E28">
-        <v>11.7</v>
+        <v>12.6</v>
       </c>
       <c r="F28">
-        <v>10.9</v>
+        <v>14.7</v>
       </c>
       <c r="G28">
-        <v>16.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1998,22 +1998,22 @@
         <v>180</v>
       </c>
       <c r="B29">
-        <v>887.675581</v>
+        <v>808.055763</v>
       </c>
       <c r="C29">
-        <v>915.414255</v>
+        <v>840.308003</v>
       </c>
       <c r="D29">
-        <v>1011.270513</v>
+        <v>861.2693829999999</v>
       </c>
       <c r="E29">
-        <v>13.9</v>
+        <v>17.3</v>
       </c>
       <c r="F29">
-        <v>14.7</v>
+        <v>20.8</v>
       </c>
       <c r="G29">
-        <v>20.2</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2021,22 +2021,22 @@
         <v>187</v>
       </c>
       <c r="B30">
-        <v>559.726901</v>
+        <v>537.795814</v>
       </c>
       <c r="C30">
-        <v>566.161096</v>
+        <v>526.5310940000001</v>
       </c>
       <c r="D30">
-        <v>581.702899</v>
+        <v>536.388359</v>
       </c>
       <c r="E30">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="F30">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="G30">
-        <v>10.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2044,22 +2044,22 @@
         <v>194</v>
       </c>
       <c r="B31">
-        <v>490.239028</v>
+        <v>481.384304</v>
       </c>
       <c r="C31">
-        <v>494.316107</v>
+        <v>470.382474</v>
       </c>
       <c r="D31">
-        <v>506.428446</v>
+        <v>478.339588</v>
       </c>
       <c r="E31">
+        <v>3.7</v>
+      </c>
+      <c r="F31">
+        <v>3.9</v>
+      </c>
+      <c r="G31">
         <v>4.8</v>
-      </c>
-      <c r="F31">
-        <v>2.7</v>
-      </c>
-      <c r="G31">
-        <v>7.7</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2072,22 +2072,22 @@
         <v>220</v>
       </c>
       <c r="B33">
-        <v>30849.350778</v>
+        <v>29151.942303</v>
       </c>
       <c r="C33">
-        <v>31477.115771</v>
+        <v>29809.667449</v>
       </c>
       <c r="D33">
-        <v>32124.999462</v>
+        <v>30283.102809</v>
       </c>
       <c r="E33">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F33">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G33">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>227</v>
       </c>
       <c r="B34">
-        <v>8571.031999999999</v>
+        <v>8342.450999999999</v>
       </c>
       <c r="C34">
-        <v>8750.219999999999</v>
+        <v>8458.534</v>
       </c>
       <c r="D34">
-        <v>8821.188</v>
+        <v>8500.472</v>
       </c>
       <c r="E34">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="F34">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="G34">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
     </row>
   </sheetData>
